--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Sema6a-Plxna2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Sema6a-Plxna2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,19 +82,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Sema6a</t>
   </si>
   <si>
     <t>Plxna2</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>51.12915033333334</v>
+        <v>57.85353733333333</v>
       </c>
       <c r="H2">
-        <v>153.387451</v>
+        <v>173.560612</v>
       </c>
       <c r="I2">
-        <v>0.8013178159252168</v>
+        <v>0.7723324713493742</v>
       </c>
       <c r="J2">
-        <v>0.8013178159252169</v>
+        <v>0.7723324713493744</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>35.48871133333333</v>
+        <v>29.01761566666667</v>
       </c>
       <c r="N2">
-        <v>106.466134</v>
+        <v>87.052847</v>
       </c>
       <c r="O2">
-        <v>0.7670904531193554</v>
+        <v>0.6436075952942075</v>
       </c>
       <c r="P2">
-        <v>0.7670904531193554</v>
+        <v>0.6436075952942075</v>
       </c>
       <c r="Q2">
-        <v>1814.507656898271</v>
+        <v>1678.771711295818</v>
       </c>
       <c r="R2">
-        <v>16330.56891208443</v>
+        <v>15108.94540166236</v>
       </c>
       <c r="S2">
-        <v>0.6146832465106867</v>
+        <v>0.4970790446528032</v>
       </c>
       <c r="T2">
-        <v>0.6146832465106868</v>
+        <v>0.4970790446528033</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>51.12915033333334</v>
+        <v>57.85353733333333</v>
       </c>
       <c r="H3">
-        <v>153.387451</v>
+        <v>173.560612</v>
       </c>
       <c r="I3">
-        <v>0.8013178159252168</v>
+        <v>0.7723324713493742</v>
       </c>
       <c r="J3">
-        <v>0.8013178159252169</v>
+        <v>0.7723324713493744</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>7.839784</v>
       </c>
       <c r="O3">
-        <v>0.05648578787427251</v>
+        <v>0.05796185537580412</v>
       </c>
       <c r="P3">
-        <v>0.05648578787427252</v>
+        <v>0.05796185537580412</v>
       </c>
       <c r="Q3">
-        <v>133.6138315722871</v>
+        <v>151.1864121097564</v>
       </c>
       <c r="R3">
-        <v>1202.524484150584</v>
+        <v>1360.677708987808</v>
       </c>
       <c r="S3">
-        <v>0.04526306817022714</v>
+        <v>0.04476582300638981</v>
       </c>
       <c r="T3">
-        <v>0.04526306817022716</v>
+        <v>0.04476582300638982</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>51.12915033333334</v>
+        <v>57.85353733333333</v>
       </c>
       <c r="H4">
-        <v>153.387451</v>
+        <v>173.560612</v>
       </c>
       <c r="I4">
-        <v>0.8013178159252168</v>
+        <v>0.7723324713493742</v>
       </c>
       <c r="J4">
-        <v>0.8013178159252169</v>
+        <v>0.7723324713493744</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.596082</v>
+        <v>1.123006</v>
       </c>
       <c r="N4">
-        <v>1.788246</v>
+        <v>3.369018</v>
       </c>
       <c r="O4">
-        <v>0.01288434531142903</v>
+        <v>0.02490815232594174</v>
       </c>
       <c r="P4">
-        <v>0.01288434531142903</v>
+        <v>0.02490815232594174</v>
       </c>
       <c r="Q4">
-        <v>30.477166188994</v>
+        <v>64.96986954655732</v>
       </c>
       <c r="R4">
-        <v>274.294495700946</v>
+        <v>584.7288259190159</v>
       </c>
       <c r="S4">
-        <v>0.01032445544458062</v>
+        <v>0.01923737484264125</v>
       </c>
       <c r="T4">
-        <v>0.01032445544458062</v>
+        <v>0.01923737484264125</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,14 +711,14 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>51.12915033333334</v>
+        <v>57.85353733333333</v>
       </c>
       <c r="H5">
-        <v>153.387451</v>
+        <v>173.560612</v>
       </c>
       <c r="I5">
-        <v>0.8013178159252168</v>
+        <v>0.7723324713493742</v>
       </c>
       <c r="J5">
-        <v>0.8013178159252169</v>
+        <v>0.7723324713493744</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.083219666666667</v>
+        <v>10.33196133333333</v>
       </c>
       <c r="N5">
-        <v>21.249659</v>
+        <v>30.995884</v>
       </c>
       <c r="O5">
-        <v>0.1531041838237668</v>
+        <v>0.2291617914030796</v>
       </c>
       <c r="P5">
-        <v>0.1531041838237668</v>
+        <v>0.2291617914030796</v>
       </c>
       <c r="Q5">
-        <v>362.1590031810233</v>
+        <v>597.7405107245563</v>
       </c>
       <c r="R5">
-        <v>3259.431028629209</v>
+        <v>5379.664596521007</v>
       </c>
       <c r="S5">
-        <v>0.1226851101906737</v>
+        <v>0.1769890926931902</v>
       </c>
       <c r="T5">
-        <v>0.1226851101906738</v>
+        <v>0.1769890926931903</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,14 +773,14 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>51.12915033333334</v>
+        <v>57.85353733333333</v>
       </c>
       <c r="H6">
-        <v>153.387451</v>
+        <v>173.560612</v>
       </c>
       <c r="I6">
-        <v>0.8013178159252168</v>
+        <v>0.7723324713493742</v>
       </c>
       <c r="J6">
-        <v>0.8013178159252169</v>
+        <v>0.7723324713493744</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.482776</v>
+        <v>2.000037</v>
       </c>
       <c r="N6">
-        <v>1.448328</v>
+        <v>6.000111</v>
       </c>
       <c r="O6">
-        <v>0.01043522987117622</v>
+        <v>0.044360605600967</v>
       </c>
       <c r="P6">
-        <v>0.01043522987117622</v>
+        <v>0.044360605600967</v>
       </c>
       <c r="Q6">
-        <v>24.68392668132534</v>
+        <v>115.709215247548</v>
       </c>
       <c r="R6">
-        <v>222.155340131928</v>
+        <v>1041.382937227932</v>
       </c>
       <c r="S6">
-        <v>0.008361935609048507</v>
+        <v>0.03426113615434974</v>
       </c>
       <c r="T6">
-        <v>0.008361935609048509</v>
+        <v>0.03426113615434975</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>8.625510999999999</v>
       </c>
       <c r="I7">
-        <v>0.04506089377389114</v>
+        <v>0.03838291505495044</v>
       </c>
       <c r="J7">
-        <v>0.04506089377389114</v>
+        <v>0.03838291505495045</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>35.48871133333333</v>
+        <v>29.01761566666667</v>
       </c>
       <c r="N7">
-        <v>106.466134</v>
+        <v>87.052847</v>
       </c>
       <c r="O7">
-        <v>0.7670904531193554</v>
+        <v>0.6436075952942075</v>
       </c>
       <c r="P7">
-        <v>0.7670904531193554</v>
+        <v>0.6436075952942075</v>
       </c>
       <c r="Q7">
-        <v>102.0360899938304</v>
+        <v>83.43058770886856</v>
       </c>
       <c r="R7">
-        <v>918.3248099444739</v>
+        <v>750.875289379817</v>
       </c>
       <c r="S7">
-        <v>0.0345657814229773</v>
+        <v>0.02470353565889849</v>
       </c>
       <c r="T7">
-        <v>0.0345657814229773</v>
+        <v>0.02470353565889849</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>8.625510999999999</v>
       </c>
       <c r="I8">
-        <v>0.04506089377389114</v>
+        <v>0.03838291505495044</v>
       </c>
       <c r="J8">
-        <v>0.04506089377389114</v>
+        <v>0.03838291505495045</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>7.839784</v>
       </c>
       <c r="O8">
-        <v>0.05648578787427251</v>
+        <v>0.05796185537580412</v>
       </c>
       <c r="P8">
-        <v>0.05648578787427252</v>
+        <v>0.05796185537580412</v>
       </c>
       <c r="Q8">
         <v>7.513571458847111</v>
@@ -948,10 +948,10 @@
         <v>67.62214312962399</v>
       </c>
       <c r="S8">
-        <v>0.002545300087137142</v>
+        <v>0.002224744971316812</v>
       </c>
       <c r="T8">
-        <v>0.002545300087137142</v>
+        <v>0.002224744971316813</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>8.625510999999999</v>
       </c>
       <c r="I9">
-        <v>0.04506089377389114</v>
+        <v>0.03838291505495044</v>
       </c>
       <c r="J9">
-        <v>0.04506089377389114</v>
+        <v>0.03838291505495045</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.596082</v>
+        <v>1.123006</v>
       </c>
       <c r="N9">
-        <v>1.788246</v>
+        <v>3.369018</v>
       </c>
       <c r="O9">
-        <v>0.01288434531142903</v>
+        <v>0.02490815232594174</v>
       </c>
       <c r="P9">
-        <v>0.01288434531142903</v>
+        <v>0.02490815232594174</v>
       </c>
       <c r="Q9">
-        <v>1.713837282634</v>
+        <v>3.228833535355333</v>
       </c>
       <c r="R9">
-        <v>15.424535543706</v>
+        <v>29.05950181819799</v>
       </c>
       <c r="S9">
-        <v>0.0005805801154244358</v>
+        <v>0.000956047494902388</v>
       </c>
       <c r="T9">
-        <v>0.000580580115424436</v>
+        <v>0.0009560474949023882</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1042,10 +1042,10 @@
         <v>8.625510999999999</v>
       </c>
       <c r="I10">
-        <v>0.04506089377389114</v>
+        <v>0.03838291505495044</v>
       </c>
       <c r="J10">
-        <v>0.04506089377389114</v>
+        <v>0.03838291505495045</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.083219666666667</v>
+        <v>10.33196133333333</v>
       </c>
       <c r="N10">
-        <v>21.249659</v>
+        <v>30.995884</v>
       </c>
       <c r="O10">
-        <v>0.1531041838237668</v>
+        <v>0.2291617914030796</v>
       </c>
       <c r="P10">
-        <v>0.1531041838237668</v>
+        <v>0.2291617914030796</v>
       </c>
       <c r="Q10">
-        <v>20.36546305008322</v>
+        <v>29.7061487107471</v>
       </c>
       <c r="R10">
-        <v>183.289167450749</v>
+        <v>267.3553383967239</v>
       </c>
       <c r="S10">
-        <v>0.006899011363621058</v>
+        <v>0.008795897573264674</v>
       </c>
       <c r="T10">
-        <v>0.00689901136362106</v>
+        <v>0.008795897573264677</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,10 +1104,10 @@
         <v>8.625510999999999</v>
       </c>
       <c r="I11">
-        <v>0.04506089377389114</v>
+        <v>0.03838291505495044</v>
       </c>
       <c r="J11">
-        <v>0.04506089377389114</v>
+        <v>0.03838291505495045</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.482776</v>
+        <v>2.000037</v>
       </c>
       <c r="N11">
-        <v>1.448328</v>
+        <v>6.000111</v>
       </c>
       <c r="O11">
-        <v>0.01043522987117622</v>
+        <v>0.044360605600967</v>
       </c>
       <c r="P11">
-        <v>0.01043522987117622</v>
+        <v>0.044360605600967</v>
       </c>
       <c r="Q11">
-        <v>1.388063232845333</v>
+        <v>5.750447047969001</v>
       </c>
       <c r="R11">
-        <v>12.492569095608</v>
+        <v>51.754023431721</v>
       </c>
       <c r="S11">
-        <v>0.0004702207847312072</v>
+        <v>0.001702689356568075</v>
       </c>
       <c r="T11">
-        <v>0.0004702207847312073</v>
+        <v>0.001702689356568076</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>9.802011</v>
+        <v>0.07776233333333334</v>
       </c>
       <c r="H12">
-        <v>29.406033</v>
+        <v>0.233287</v>
       </c>
       <c r="I12">
-        <v>0.153621290300892</v>
+        <v>0.001038110681723578</v>
       </c>
       <c r="J12">
-        <v>0.153621290300892</v>
+        <v>0.001038110681723578</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>35.48871133333333</v>
+        <v>29.01761566666667</v>
       </c>
       <c r="N12">
-        <v>106.466134</v>
+        <v>87.052847</v>
       </c>
       <c r="O12">
-        <v>0.7670904531193554</v>
+        <v>0.6436075952942075</v>
       </c>
       <c r="P12">
-        <v>0.7670904531193554</v>
+        <v>0.6436075952942075</v>
       </c>
       <c r="Q12">
-        <v>347.860738865158</v>
+        <v>2.256477502009889</v>
       </c>
       <c r="R12">
-        <v>3130.746649786422</v>
+        <v>20.308297518089</v>
       </c>
       <c r="S12">
-        <v>0.1178414251856913</v>
+        <v>0.0006681359195133427</v>
       </c>
       <c r="T12">
-        <v>0.1178414251856913</v>
+        <v>0.0006681359195133428</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>9.802011</v>
+        <v>0.07776233333333334</v>
       </c>
       <c r="H13">
-        <v>29.406033</v>
+        <v>0.233287</v>
       </c>
       <c r="I13">
-        <v>0.153621290300892</v>
+        <v>0.001038110681723578</v>
       </c>
       <c r="J13">
-        <v>0.153621290300892</v>
+        <v>0.001038110681723578</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>7.839784</v>
       </c>
       <c r="O13">
-        <v>0.05648578787427251</v>
+        <v>0.05796185537580412</v>
       </c>
       <c r="P13">
-        <v>0.05648578787427252</v>
+        <v>0.05796185537580412</v>
       </c>
       <c r="Q13">
-        <v>25.615216335208</v>
+        <v>0.2032132988897778</v>
       </c>
       <c r="R13">
-        <v>230.536947016872</v>
+        <v>1.828919690008</v>
       </c>
       <c r="S13">
-        <v>0.008677419616908225</v>
+        <v>6.017082119813947E-05</v>
       </c>
       <c r="T13">
-        <v>0.008677419616908225</v>
+        <v>6.017082119813948E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>9.802011</v>
+        <v>0.07776233333333334</v>
       </c>
       <c r="H14">
-        <v>29.406033</v>
+        <v>0.233287</v>
       </c>
       <c r="I14">
-        <v>0.153621290300892</v>
+        <v>0.001038110681723578</v>
       </c>
       <c r="J14">
-        <v>0.153621290300892</v>
+        <v>0.001038110681723578</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.596082</v>
+        <v>1.123006</v>
       </c>
       <c r="N14">
-        <v>1.788246</v>
+        <v>3.369018</v>
       </c>
       <c r="O14">
-        <v>0.01288434531142903</v>
+        <v>0.02490815232594174</v>
       </c>
       <c r="P14">
-        <v>0.01288434531142903</v>
+        <v>0.02490815232594174</v>
       </c>
       <c r="Q14">
-        <v>5.842802320902</v>
+        <v>0.08732756690733333</v>
       </c>
       <c r="R14">
-        <v>52.585220888118</v>
+        <v>0.7859481021659999</v>
       </c>
       <c r="S14">
-        <v>0.001979309751423976</v>
+        <v>2.585741899155811E-05</v>
       </c>
       <c r="T14">
-        <v>0.001979309751423976</v>
+        <v>2.585741899155812E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>9.802011</v>
+        <v>0.07776233333333334</v>
       </c>
       <c r="H15">
-        <v>29.406033</v>
+        <v>0.233287</v>
       </c>
       <c r="I15">
-        <v>0.153621290300892</v>
+        <v>0.001038110681723578</v>
       </c>
       <c r="J15">
-        <v>0.153621290300892</v>
+        <v>0.001038110681723578</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>7.083219666666667</v>
+        <v>10.33196133333333</v>
       </c>
       <c r="N15">
-        <v>21.249659</v>
+        <v>30.995884</v>
       </c>
       <c r="O15">
-        <v>0.1531041838237668</v>
+        <v>0.2291617914030796</v>
       </c>
       <c r="P15">
-        <v>0.1531041838237668</v>
+        <v>0.2291617914030796</v>
       </c>
       <c r="Q15">
-        <v>69.42979708808301</v>
+        <v>0.8034374211897777</v>
       </c>
       <c r="R15">
-        <v>624.868173792747</v>
+        <v>7.230936790707999</v>
       </c>
       <c r="S15">
-        <v>0.02352006226947202</v>
+        <v>0.0002378953034984474</v>
       </c>
       <c r="T15">
-        <v>0.02352006226947202</v>
+        <v>0.0002378953034984474</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,681 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.07776233333333334</v>
+      </c>
+      <c r="H16">
+        <v>0.233287</v>
+      </c>
+      <c r="I16">
+        <v>0.001038110681723578</v>
+      </c>
+      <c r="J16">
+        <v>0.001038110681723578</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>2.000037</v>
+      </c>
+      <c r="N16">
+        <v>6.000111</v>
+      </c>
+      <c r="O16">
+        <v>0.044360605600967</v>
+      </c>
+      <c r="P16">
+        <v>0.044360605600967</v>
+      </c>
+      <c r="Q16">
+        <v>0.155527543873</v>
+      </c>
+      <c r="R16">
+        <v>1.399747894857</v>
+      </c>
+      <c r="S16">
+        <v>4.605121852209064E-05</v>
+      </c>
+      <c r="T16">
+        <v>4.605121852209065E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>14.06980433333333</v>
+      </c>
+      <c r="H17">
+        <v>42.209413</v>
+      </c>
+      <c r="I17">
+        <v>0.1878289081885491</v>
+      </c>
+      <c r="J17">
+        <v>0.1878289081885492</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>29.01761566666667</v>
+      </c>
+      <c r="N17">
+        <v>87.052847</v>
+      </c>
+      <c r="O17">
+        <v>0.6436075952942075</v>
+      </c>
+      <c r="P17">
+        <v>0.6436075952942075</v>
+      </c>
+      <c r="Q17">
+        <v>408.2721746498678</v>
+      </c>
+      <c r="R17">
+        <v>3674.449571848811</v>
+      </c>
+      <c r="S17">
+        <v>0.1208881119259686</v>
+      </c>
+      <c r="T17">
+        <v>0.1208881119259686</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>14.06980433333333</v>
+      </c>
+      <c r="H18">
+        <v>42.209413</v>
+      </c>
+      <c r="I18">
+        <v>0.1878289081885491</v>
+      </c>
+      <c r="J18">
+        <v>0.1878289081885492</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>2.613261333333333</v>
+      </c>
+      <c r="N18">
+        <v>7.839784</v>
+      </c>
+      <c r="O18">
+        <v>0.05796185537580412</v>
+      </c>
+      <c r="P18">
+        <v>0.05796185537580412</v>
+      </c>
+      <c r="Q18">
+        <v>36.76807563186578</v>
+      </c>
+      <c r="R18">
+        <v>330.912680686792</v>
+      </c>
+      <c r="S18">
+        <v>0.01088691201181988</v>
+      </c>
+      <c r="T18">
+        <v>0.01088691201181988</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>14.06980433333333</v>
+      </c>
+      <c r="H19">
+        <v>42.209413</v>
+      </c>
+      <c r="I19">
+        <v>0.1878289081885491</v>
+      </c>
+      <c r="J19">
+        <v>0.1878289081885492</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1.123006</v>
+      </c>
+      <c r="N19">
+        <v>3.369018</v>
+      </c>
+      <c r="O19">
+        <v>0.02490815232594174</v>
+      </c>
+      <c r="P19">
+        <v>0.02490815232594174</v>
+      </c>
+      <c r="Q19">
+        <v>15.80047468515933</v>
+      </c>
+      <c r="R19">
+        <v>142.204272166434</v>
+      </c>
+      <c r="S19">
+        <v>0.004678471056375708</v>
+      </c>
+      <c r="T19">
+        <v>0.004678471056375709</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>14.06980433333333</v>
+      </c>
+      <c r="H20">
+        <v>42.209413</v>
+      </c>
+      <c r="I20">
+        <v>0.1878289081885491</v>
+      </c>
+      <c r="J20">
+        <v>0.1878289081885492</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>10.33196133333333</v>
+      </c>
+      <c r="N20">
+        <v>30.995884</v>
+      </c>
+      <c r="O20">
+        <v>0.2291617914030796</v>
+      </c>
+      <c r="P20">
+        <v>0.2291617914030796</v>
+      </c>
+      <c r="Q20">
+        <v>145.3686743395658</v>
+      </c>
+      <c r="R20">
+        <v>1308.318069056092</v>
+      </c>
+      <c r="S20">
+        <v>0.04304320907777248</v>
+      </c>
+      <c r="T20">
+        <v>0.0430432090777725</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>9.802011</v>
-      </c>
-      <c r="H16">
-        <v>29.406033</v>
-      </c>
-      <c r="I16">
-        <v>0.153621290300892</v>
-      </c>
-      <c r="J16">
-        <v>0.153621290300892</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>0.482776</v>
-      </c>
-      <c r="N16">
-        <v>1.448328</v>
-      </c>
-      <c r="O16">
-        <v>0.01043522987117622</v>
-      </c>
-      <c r="P16">
-        <v>0.01043522987117622</v>
-      </c>
-      <c r="Q16">
-        <v>4.732175662536</v>
-      </c>
-      <c r="R16">
-        <v>42.589580962824</v>
-      </c>
-      <c r="S16">
-        <v>0.001603073477396502</v>
-      </c>
-      <c r="T16">
-        <v>0.001603073477396502</v>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>14.06980433333333</v>
+      </c>
+      <c r="H21">
+        <v>42.209413</v>
+      </c>
+      <c r="I21">
+        <v>0.1878289081885491</v>
+      </c>
+      <c r="J21">
+        <v>0.1878289081885492</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>2.000037</v>
+      </c>
+      <c r="N21">
+        <v>6.000111</v>
+      </c>
+      <c r="O21">
+        <v>0.044360605600967</v>
+      </c>
+      <c r="P21">
+        <v>0.044360605600967</v>
+      </c>
+      <c r="Q21">
+        <v>28.140129249427</v>
+      </c>
+      <c r="R21">
+        <v>253.261163244843</v>
+      </c>
+      <c r="S21">
+        <v>0.008332204116612469</v>
+      </c>
+      <c r="T21">
+        <v>0.008332204116612472</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.031281</v>
+      </c>
+      <c r="H22">
+        <v>0.093843</v>
+      </c>
+      <c r="I22">
+        <v>0.0004175947254025546</v>
+      </c>
+      <c r="J22">
+        <v>0.0004175947254025547</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>29.01761566666667</v>
+      </c>
+      <c r="N22">
+        <v>87.052847</v>
+      </c>
+      <c r="O22">
+        <v>0.6436075952942075</v>
+      </c>
+      <c r="P22">
+        <v>0.6436075952942075</v>
+      </c>
+      <c r="Q22">
+        <v>0.9077000356689999</v>
+      </c>
+      <c r="R22">
+        <v>8.169300321021</v>
+      </c>
+      <c r="S22">
+        <v>0.0002687671370238831</v>
+      </c>
+      <c r="T22">
+        <v>0.0002687671370238832</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.031281</v>
+      </c>
+      <c r="H23">
+        <v>0.093843</v>
+      </c>
+      <c r="I23">
+        <v>0.0004175947254025546</v>
+      </c>
+      <c r="J23">
+        <v>0.0004175947254025547</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>2.613261333333333</v>
+      </c>
+      <c r="N23">
+        <v>7.839784</v>
+      </c>
+      <c r="O23">
+        <v>0.05796185537580412</v>
+      </c>
+      <c r="P23">
+        <v>0.05796185537580412</v>
+      </c>
+      <c r="Q23">
+        <v>0.08174542776799999</v>
+      </c>
+      <c r="R23">
+        <v>0.7357088499119999</v>
+      </c>
+      <c r="S23">
+        <v>2.420456507948151E-05</v>
+      </c>
+      <c r="T23">
+        <v>2.420456507948151E-05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.031281</v>
+      </c>
+      <c r="H24">
+        <v>0.093843</v>
+      </c>
+      <c r="I24">
+        <v>0.0004175947254025546</v>
+      </c>
+      <c r="J24">
+        <v>0.0004175947254025547</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1.123006</v>
+      </c>
+      <c r="N24">
+        <v>3.369018</v>
+      </c>
+      <c r="O24">
+        <v>0.02490815232594174</v>
+      </c>
+      <c r="P24">
+        <v>0.02490815232594174</v>
+      </c>
+      <c r="Q24">
+        <v>0.03512875068599999</v>
+      </c>
+      <c r="R24">
+        <v>0.316158756174</v>
+      </c>
+      <c r="S24">
+        <v>1.040151303083664E-05</v>
+      </c>
+      <c r="T24">
+        <v>1.040151303083665E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.031281</v>
+      </c>
+      <c r="H25">
+        <v>0.093843</v>
+      </c>
+      <c r="I25">
+        <v>0.0004175947254025546</v>
+      </c>
+      <c r="J25">
+        <v>0.0004175947254025547</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>10.33196133333333</v>
+      </c>
+      <c r="N25">
+        <v>30.995884</v>
+      </c>
+      <c r="O25">
+        <v>0.2291617914030796</v>
+      </c>
+      <c r="P25">
+        <v>0.2291617914030796</v>
+      </c>
+      <c r="Q25">
+        <v>0.3231940824679999</v>
+      </c>
+      <c r="R25">
+        <v>2.908746742212</v>
+      </c>
+      <c r="S25">
+        <v>9.569675535372651E-05</v>
+      </c>
+      <c r="T25">
+        <v>9.569675535372655E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.031281</v>
+      </c>
+      <c r="H26">
+        <v>0.093843</v>
+      </c>
+      <c r="I26">
+        <v>0.0004175947254025546</v>
+      </c>
+      <c r="J26">
+        <v>0.0004175947254025547</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>2.000037</v>
+      </c>
+      <c r="N26">
+        <v>6.000111</v>
+      </c>
+      <c r="O26">
+        <v>0.044360605600967</v>
+      </c>
+      <c r="P26">
+        <v>0.044360605600967</v>
+      </c>
+      <c r="Q26">
+        <v>0.062563157397</v>
+      </c>
+      <c r="R26">
+        <v>0.563068416573</v>
+      </c>
+      <c r="S26">
+        <v>1.852475491462684E-05</v>
+      </c>
+      <c r="T26">
+        <v>1.852475491462685E-05</v>
       </c>
     </row>
   </sheetData>
